--- a/medicine/Enfance/Nicolas_Michel_(écrivain)/Nicolas_Michel_(écrivain).xlsx
+++ b/medicine/Enfance/Nicolas_Michel_(écrivain)/Nicolas_Michel_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolas_Michel_(%C3%A9crivain)</t>
+          <t>Nicolas_Michel_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas Michel, né le 20 avril 1974 à Aix-en-Provence, est un romancier[1] et journaliste français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Michel, né le 20 avril 1974 à Aix-en-Provence, est un romancier et journaliste français. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas_Michel_(%C3%A9crivain)</t>
+          <t>Nicolas_Michel_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les livres de Nicolas Michel explorent la thématique de l'enfance, de la maladie et de la différence. Il est le frère de la scénariste de bande dessinée Sophie Michel. 
-Il est rédacteur en chef adjoint au journal Jeune Afrique où il traite essentiellement des questions culturelles[2]. 
-En 2017 est publié aux éditions Talents Hauts son roman jeunesse Quand le monstre naîtra, dans lequel Lucile, une vieille dame, se souvient de son enfance aux débuts de la Seconde Guerre mondiale, en 1939[3]. L'ouvrage obtient le Prix Saint-Exupéry 2017[4].
+Il est rédacteur en chef adjoint au journal Jeune Afrique où il traite essentiellement des questions culturelles. 
+En 2017 est publié aux éditions Talents Hauts son roman jeunesse Quand le monstre naîtra, dans lequel Lucile, une vieille dame, se souvient de son enfance aux débuts de la Seconde Guerre mondiale, en 1939. L'ouvrage obtient le Prix Saint-Exupéry 2017.
 Aux mêmes éditions est publié en 2018 Le Chant noir des baleines. Michel Abescat, dans son avis critique de Télérama, explique : 
-« L’auteur, Nicolas Michel, s’est inspiré d’une catastrophe maritime survenue lors d’une violente tempête, le 12 janvier 1920 : le naufrage, au large de Bordeaux, du paquebot Afrique qui devait rallier Dakar (Sénégal) et transportait à son bord, parmi les passagers, 185 tirailleurs sénégalais survivants de la Grande Guerre[5]. » Le roman est soutenu par Amnesty International[6].
-Le 9 janvier 2020, il participe à la commémoration du centenaire du naufrage, organisée par Karfa Diallo de l'association Mémoires &amp; Partages, sur le quai des Chartrons à Bordeaux. La cérémonie s'accompagne du dévoilement d'une œuvre du street-artist A-Mo, qui s'inspire directement du titre du roman de Nicolas Michel[7].
+« L’auteur, Nicolas Michel, s’est inspiré d’une catastrophe maritime survenue lors d’une violente tempête, le 12 janvier 1920 : le naufrage, au large de Bordeaux, du paquebot Afrique qui devait rallier Dakar (Sénégal) et transportait à son bord, parmi les passagers, 185 tirailleurs sénégalais survivants de la Grande Guerre. » Le roman est soutenu par Amnesty International.
+Le 9 janvier 2020, il participe à la commémoration du centenaire du naufrage, organisée par Karfa Diallo de l'association Mémoires &amp; Partages, sur le quai des Chartrons à Bordeaux. La cérémonie s'accompagne du dévoilement d'une œuvre du street-artist A-Mo, qui s'inspire directement du titre du roman de Nicolas Michel.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicolas_Michel_(%C3%A9crivain)</t>
+          <t>Nicolas_Michel_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,19 +563,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Un revenant, Gallimard, 1999 Prix Goncourt du premier roman 1999[8] ; Prix Emmanuel-Roblès 1999[8] ; Prix littéraire de la Vocation 1999[9]
-Le Dernier Voyage d'Émilie, Gallimard, 2002.  Prix Alexandre-Vialatte 2002[10]
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un revenant, Gallimard, 1999 Prix Goncourt du premier roman 1999 ; Prix Emmanuel-Roblès 1999 ; Prix littéraire de la Vocation 1999
+Le Dernier Voyage d'Émilie, Gallimard, 2002.  Prix Alexandre-Vialatte 2002
 La Bleue, Gallimard, 2004
 Naevi, Buchet-Chastel, 2008
 Corsika, Buchet-Chastel, 2012
 Romans jeunesse
-Quand le monstre naîtra[3], éditions Talents Hauts, 2017 Prix Saint-Exupéry 2017[4]
-Le Chant noir des baleines[5],[6], Talents hauts, 2018
+Quand le monstre naîtra, éditions Talents Hauts, 2017 Prix Saint-Exupéry 2017
+Le Chant noir des baleines Talents hauts, 2018
 Les aventures extraordinaires du mousse Cristobal Sperenza : à travers les mers et les océans, à l'époque des animaux fabuleux, des îles mystérieuses et des brigantins, Magellan &amp; cie, 2019
-Comment j'ai réparé le sourire de Nina, Le Muscadier, 2020
-Autres
-Brésil - Fragments d'un voyage, avec Emmanuel Lepage, Casterman, 2003
+Comment j'ai réparé le sourire de Nina, Le Muscadier, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nicolas_Michel_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_Michel_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brésil - Fragments d'un voyage, avec Emmanuel Lepage, Casterman, 2003
 America - Fragments d'un voyage, avec Emmanuel Lepage, Casterman, 2003
 Martin Page et Thomas B. Reverdy (dir.), Collection irraisonnée de préfaces à des livres fétiches, Intervalles, 2009
 L'Abécémer, Magellan &amp; Cie,  2018 - abécédaire illustré sur le thème de la mer
@@ -569,38 +622,40 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nicolas_Michel_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nicolas_Michel_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nicolas_Michel_(%C3%A9crivain)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix du jeune écrivain 1995[9]
-Prix Goncourt du premier roman 1999[8] pour Un revenant
-Prix Emmanuel-Roblès 1999[8] pour Un revenant
-Prix littéraire de la Vocation 1999[9] pour Un revenant
-Prix Alexandre-Vialatte 2002[10] pour Le Dernier Voyage d'Émilie
-Prix Saint-Exupéry 2017[4] pour Quand le monstre naîtra</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix du jeune écrivain 1995
+Prix Goncourt du premier roman 1999 pour Un revenant
+Prix Emmanuel-Roblès 1999 pour Un revenant
+Prix littéraire de la Vocation 1999 pour Un revenant
+Prix Alexandre-Vialatte 2002 pour Le Dernier Voyage d'Émilie
+Prix Saint-Exupéry 2017 pour Quand le monstre naîtra</t>
         </is>
       </c>
     </row>
